--- a/Task/Проверки 1.1 в.4.xlsx
+++ b/Task/Проверки 1.1 в.4.xlsx
@@ -1127,7 +1127,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Из возможных значений. </t>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
     </r>
     <r>
       <rPr>
@@ -1138,12 +1138,38 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>При коде операции 11 должено быть 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
     </r>
     <r>
       <rPr>
@@ -1154,12 +1180,265 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+      <t xml:space="preserve"> 54,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ц</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 97, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, 2, 3, 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в графе 14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
     </r>
     <r>
       <rPr>
@@ -1170,295 +1449,45 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Укажите код ОКПО контрагента</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 54,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 63, 64, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ц</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, 2, 3, 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в графе 14</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1469,59 +1498,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
     <t>"прим.". Обязательно примечание к ячейке</t>
+  </si>
+  <si>
+    <t>Из возможных значений. При коде операции 41 должно быть 1. При 66 должно быть 13. При 81 и 85 должно быть 3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1655,6 +1642,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1703,7 +1697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1738,29 +1732,23 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8E4BC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2060,14 +2048,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1" filterMode="1">
+  <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,8 +2114,8 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>163</v>
+      <c r="G2" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2141,7 +2129,7 @@
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="3"/>
@@ -2153,7 +2141,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2197,7 +2185,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2241,7 +2229,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2263,7 +2251,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -2285,7 +2273,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -2325,7 +2313,7 @@
         <v>122</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2347,11 +2335,11 @@
         <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2373,7 +2361,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -2395,7 +2383,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -2545,7 +2533,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -2567,7 +2555,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>6</v>
       </c>
@@ -2651,7 +2639,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>9</v>
       </c>
@@ -2671,7 +2659,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -2691,7 +2679,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>9</v>
       </c>
@@ -2901,7 +2889,7 @@
         <v>82</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2923,7 +2911,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2961,7 +2949,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>79</v>
@@ -3030,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>83</v>
@@ -3051,8 +3039,8 @@
         <v>85</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>152</v>
+      <c r="F45" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>135</v>
@@ -3154,7 +3142,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>136</v>
@@ -3178,10 +3166,10 @@
         <v>48</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>138</v>
@@ -3202,16 +3190,16 @@
         <v>48</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -3226,7 +3214,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" s="8">
         <v>66</v>
@@ -3235,7 +3223,7 @@
         <v>138</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3250,7 +3238,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>99</v>
@@ -3274,7 +3262,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>101</v>
@@ -3297,8 +3285,8 @@
       <c r="C56" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>159</v>
+      <c r="D56" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
@@ -3351,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3428,7 +3416,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>123</v>
@@ -3450,7 +3438,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>123</v>
@@ -3472,7 +3460,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>123</v>
@@ -3482,11 +3470,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H63">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H63"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
